--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.071057</v>
+        <v>31.40242733333333</v>
       </c>
       <c r="N2">
-        <v>102.213171</v>
+        <v>94.20728199999999</v>
       </c>
       <c r="O2">
-        <v>0.5537562116045692</v>
+        <v>0.5334014788811394</v>
       </c>
       <c r="P2">
-        <v>0.5537562116045693</v>
+        <v>0.5334014788811395</v>
       </c>
       <c r="Q2">
-        <v>11.45071440675</v>
+        <v>10.55383245294444</v>
       </c>
       <c r="R2">
-        <v>103.05642966075</v>
+        <v>94.98449207649998</v>
       </c>
       <c r="S2">
-        <v>0.5537562116045692</v>
+        <v>0.5334014788811394</v>
       </c>
       <c r="T2">
-        <v>0.5537562116045693</v>
+        <v>0.5334014788811395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>57.869327</v>
       </c>
       <c r="O3">
-        <v>0.3135163401556734</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="P3">
-        <v>0.3135163401556735</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="Q3">
         <v>6.482972105305555</v>
@@ -635,10 +635,10 @@
         <v>58.34674894774999</v>
       </c>
       <c r="S3">
-        <v>0.3135163401556734</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="T3">
-        <v>0.3135163401556735</v>
+        <v>0.327656036225058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.7978</v>
+        <v>1.868202333333333</v>
       </c>
       <c r="N4">
-        <v>5.3934</v>
+        <v>5.604607</v>
       </c>
       <c r="O4">
-        <v>0.02921960763420678</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="P4">
-        <v>0.02921960763420679</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="Q4">
-        <v>0.6042106166666665</v>
+        <v>0.6278716675277777</v>
       </c>
       <c r="R4">
-        <v>5.437895549999999</v>
+        <v>5.650845007749999</v>
       </c>
       <c r="S4">
-        <v>0.02921960763420678</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="T4">
-        <v>0.02921960763420679</v>
+        <v>0.03173327580290011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.368545333333334</v>
+        <v>6.311623666666667</v>
       </c>
       <c r="N5">
-        <v>19.105636</v>
+        <v>18.934871</v>
       </c>
       <c r="O5">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909023</v>
       </c>
       <c r="P5">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909024</v>
       </c>
       <c r="Q5">
-        <v>2.140361944111111</v>
+        <v>2.121231520638889</v>
       </c>
       <c r="R5">
-        <v>19.263257497</v>
+        <v>19.09108368575</v>
       </c>
       <c r="S5">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909023</v>
       </c>
       <c r="T5">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909024</v>
       </c>
     </row>
   </sheetData>
